--- a/data/trans_dic/P25C$otrosprofesionales_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P25C$otrosprofesionales_2023-Dificultad-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.01226441059572702</v>
+        <v>0.01226441059572701</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.007750410321433122</v>
+        <v>0.007750410321433121</v>
       </c>
     </row>
     <row r="5">
@@ -596,11 +596,11 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07234122565304899</v>
+        <v>0.07242129155107979</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.04332919261549761</v>
+        <v>0.04659662499996139</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.006779741611910809</v>
+        <v>0.00677974161191081</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.0131956310941997</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.008775806031357662</v>
+        <v>0.008775806031357665</v>
       </c>
     </row>
     <row r="8">
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002292962814905365</v>
+        <v>0.002283440884869014</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02401470996165173</v>
+        <v>0.02411883236412722</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04691228111718956</v>
+        <v>0.04096997288425385</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02251504261965839</v>
+        <v>0.02149727904963272</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         <v>0.009373378329677917</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.033365061753504</v>
+        <v>0.03336506175350399</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.01790184191494116</v>
@@ -690,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01273325279426408</v>
+        <v>0.01268183195977199</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.00766651213343857</v>
+        <v>0.007484028681636137</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0310710559831468</v>
+        <v>0.0353660710780517</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06926118027858696</v>
+        <v>0.0668805130073994</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03595149050467831</v>
+        <v>0.03388864408073055</v>
       </c>
     </row>
     <row r="13">
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.005466172612322021</v>
+        <v>0.005557954631308272</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.004298461307046818</v>
+        <v>0.004150631021452635</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02435992146196464</v>
+        <v>0.02369748445453171</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0502938394240519</v>
+        <v>0.05311507571630867</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02618579802504793</v>
+        <v>0.02475173838866062</v>
       </c>
     </row>
     <row r="16">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.007515950671502047</v>
+        <v>0.007515950671502045</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.01962717257089831</v>
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.003081774720874889</v>
+        <v>0.002941296583153373</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.009793315042218391</v>
+        <v>0.01072330435952105</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.007297165061274131</v>
+        <v>0.007263913725677567</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01610742931302561</v>
+        <v>0.01606162659273802</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03341978699524229</v>
+        <v>0.03688456837059246</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01902327672225999</v>
+        <v>0.01848158281052755</v>
       </c>
     </row>
     <row r="19">
@@ -977,11 +977,11 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6344</v>
+        <v>6351</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>6013</v>
+        <v>6466</v>
       </c>
     </row>
     <row r="8">
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="11">
@@ -1047,13 +1047,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>4666</v>
+        <v>4687</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>4117</v>
+        <v>3595</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>6351</v>
+        <v>6064</v>
       </c>
     </row>
     <row r="12">
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1979</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="15">
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5169</v>
+        <v>5883</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6355</v>
+        <v>6136</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9279</v>
+        <v>8747</v>
       </c>
     </row>
     <row r="16">
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1451</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="19">
@@ -1191,13 +1191,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>5035</v>
+        <v>4898</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>6577</v>
+        <v>6946</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>8837</v>
+        <v>8353</v>
       </c>
     </row>
     <row r="20">
@@ -1246,13 +1246,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2019</v>
+        <v>1927</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3539</v>
+        <v>3875</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>7417</v>
+        <v>7383</v>
       </c>
     </row>
     <row r="23">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>10551</v>
+        <v>10521</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>12076</v>
+        <v>13328</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>19335</v>
+        <v>18785</v>
       </c>
     </row>
     <row r="24">
